--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_195.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_195.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>STR</t>
   </si>
@@ -136,153 +136,6 @@
   </si>
   <si>
     <t>response_text</t>
-  </si>
-  <si>
-    <t>lydhem</t>
-  </si>
-  <si>
-    <t>04/13/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d498233-r573132295-The_Eliza_Jane_New_Orleans_in_the_Unbound_Collection_by_Hyatt-New_Orleans_Louisian.html</t>
-  </si>
-  <si>
-    <t>60864</t>
-  </si>
-  <si>
-    <t>498233</t>
-  </si>
-  <si>
-    <t>573132295</t>
-  </si>
-  <si>
-    <t>Boutique Experience</t>
-  </si>
-  <si>
-    <t>Gorgeous, brand new hotel in New Orleans, walking distance from superdome, french quarter, canal and bourbon street. Interior decor was gorgeous. Room was on the small side but very comfortable. Insanely high ceilings and high end furnishings. Bathrooms are up to date and clean with fluffy towels. Would definitely stay there again!</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>seekreed</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d498233-r572691367-The_Eliza_Jane_New_Orleans_in_the_Unbound_Collection_by_Hyatt-New_Orleans_Louisian.html</t>
-  </si>
-  <si>
-    <t>572691367</t>
-  </si>
-  <si>
-    <t>04/11/2018</t>
-  </si>
-  <si>
-    <t>My new fav</t>
-  </si>
-  <si>
-    <t>this hotel offered everything i would look for in a hotel, the staff was wonderful, the hotel was swanky and stylish. our room was the perfect size, not to big, not to small, oh did I saw the staff was amazing!! The Eliza Jane is in the perfect location to everything in New Orleans! we have already booke again the hotel was so nice, and most definitely will be my go to for my visits to Nola!MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Daniel L, Front Office Manager at The Eliza Jane New Orleans - in the Unbound Collection by Hyatt, responded to this reviewResponded yesterday</t>
-  </si>
-  <si>
-    <t>Responded yesterday</t>
-  </si>
-  <si>
-    <t>this hotel offered everything i would look for in a hotel, the staff was wonderful, the hotel was swanky and stylish. our room was the perfect size, not to big, not to small, oh did I saw the staff was amazing!! The Eliza Jane is in the perfect location to everything in New Orleans! we have already booke again the hotel was so nice, and most definitely will be my go to for my visits to Nola!More</t>
-  </si>
-  <si>
-    <t>Dymisha A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d498233-r572621643-The_Eliza_Jane_New_Orleans_in_the_Unbound_Collection_by_Hyatt-New_Orleans_Louisian.html</t>
-  </si>
-  <si>
-    <t>572621643</t>
-  </si>
-  <si>
-    <t>Globalists beware!</t>
-  </si>
-  <si>
-    <t>If you are a Hyatt Globalist (highest level of Hyatt loyalty program) then I am told that this hotel IS NOT honoring World of Hyatt requirements to offer a "full breakfast or buffet" to all Globalist members. This is because their restaurant is apparently unfinished. It is frankly ridiculous for a 4+ star hotel to be charging full rates while offering no food service, and also violating the Terms and Conditions of World of Hyatt.MoreShow less</t>
-  </si>
-  <si>
-    <t>If you are a Hyatt Globalist (highest level of Hyatt loyalty program) then I am told that this hotel IS NOT honoring World of Hyatt requirements to offer a "full breakfast or buffet" to all Globalist members. This is because their restaurant is apparently unfinished. It is frankly ridiculous for a 4+ star hotel to be charging full rates while offering no food service, and also violating the Terms and Conditions of World of Hyatt.More</t>
-  </si>
-  <si>
-    <t>Fluff1621</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d498233-r572231817-The_Eliza_Jane_New_Orleans_in_the_Unbound_Collection_by_Hyatt-New_Orleans_Louisian.html</t>
-  </si>
-  <si>
-    <t>572231817</t>
-  </si>
-  <si>
-    <t>04/09/2018</t>
-  </si>
-  <si>
-    <t>New Hotel</t>
-  </si>
-  <si>
-    <t>This used to be the Country Inn and Suites, a Radisson property. Now, it's a Hyatt property. It's been completely remodeled and is accepting reservations. 315 Magazine Street is prime location, 3 blocks away from Canal Street and the French Quarter, there are streetcar lines close, restaurants, the riverfront, casino, Audubon, etc. If you stay here, you're within walking distance to the river, FQ, and the warehouse district. Hoping the rooms and service will be awesome after the extensive renovations.MoreShow less</t>
-  </si>
-  <si>
-    <t>Daniel L, Front Office Manager at The Eliza Jane New Orleans - in the Unbound Collection by Hyatt, responded to this reviewResponded 3 days ago</t>
-  </si>
-  <si>
-    <t>Responded 3 days ago</t>
-  </si>
-  <si>
-    <t>This used to be the Country Inn and Suites, a Radisson property. Now, it's a Hyatt property. It's been completely remodeled and is accepting reservations. 315 Magazine Street is prime location, 3 blocks away from Canal Street and the French Quarter, there are streetcar lines close, restaurants, the riverfront, casino, Audubon, etc. If you stay here, you're within walking distance to the river, FQ, and the warehouse district. Hoping the rooms and service will be awesome after the extensive renovations.More</t>
-  </si>
-  <si>
-    <t>Gma0917</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d498233-r571773585-The_Eliza_Jane_New_Orleans_in_the_Unbound_Collection_by_Hyatt-New_Orleans_Louisian.html</t>
-  </si>
-  <si>
-    <t>571773585</t>
-  </si>
-  <si>
-    <t>04/07/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes. Yes.  Yes.  </t>
-  </si>
-  <si>
-    <t>Rand new and super cool.   Lobby is amazing.  Lounge area super comfy.  Staff is so nice and helpful and the room was a great size.  Only negative is the hotel is so new the restaurant isn’t open yet.  Great location.  Easy and fast to everything.   A++MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Rand new and super cool.   Lobby is amazing.  Lounge area super comfy.  Staff is so nice and helpful and the room was a great size.  Only negative is the hotel is so new the restaurant isn’t open yet.  Great location.  Easy and fast to everything.   A++More</t>
-  </si>
-  <si>
-    <t>oliya d</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d498233-r571680600-The_Eliza_Jane_New_Orleans_in_the_Unbound_Collection_by_Hyatt-New_Orleans_Louisian.html</t>
-  </si>
-  <si>
-    <t>571680600</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>First let me start off, I do not leave reviews but I had to do this one. Booked this room last minute...got into New Orleans around 11pm...tired and ready to get in the bed for a meeting in the morning. Was a little worried when we initially booked on line looking a the picture of the hotel and the low price. Also, the facility had just reopened 2 days ago. Why? Was it close for a murder or ghost? Checked in and everyone was very friendly (remember it was 11p). "Charles" was awesome, even gave us a upgrade without any hassle (didn't hurt to inform him that I had a pregnant co worker present). Chic decor, homely lobby and cool music playing. Room was clean, wonderful comfortable beds. Nice fluffy towels. Free Kureg coffee in room. Quite, cold room. Did I mention the bed was wonderful, lots of pillow options. Overall, wonderful short visit. Will definitely book again for a New Orlean visit. Thank you again!!!MoreShow less</t>
-  </si>
-  <si>
-    <t>First let me start off, I do not leave reviews but I had to do this one. Booked this room last minute...got into New Orleans around 11pm...tired and ready to get in the bed for a meeting in the morning. Was a little worried when we initially booked on line looking a the picture of the hotel and the low price. Also, the facility had just reopened 2 days ago. Why? Was it close for a murder or ghost? Checked in and everyone was very friendly (remember it was 11p). "Charles" was awesome, even gave us a upgrade without any hassle (didn't hurt to inform him that I had a pregnant co worker present). Chic decor, homely lobby and cool music playing. Room was clean, wonderful comfortable beds. Nice fluffy towels. Free Kureg coffee in room. Quite, cold room. Did I mention the bed was wonderful, lots of pillow options. Overall, wonderful short visit. Will definitely book again for a New Orlean visit. Thank you again!!!More</t>
   </si>
 </sst>
 </file>
@@ -777,408 +630,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>53014</v>
-      </c>
-      <c r="B2" t="n">
-        <v>103301</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>53014</v>
-      </c>
-      <c r="B3" t="n">
-        <v>103302</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>53014</v>
-      </c>
-      <c r="B4" t="n">
-        <v>103303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>53014</v>
-      </c>
-      <c r="B5" t="n">
-        <v>34046</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>53014</v>
-      </c>
-      <c r="B6" t="n">
-        <v>103304</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>53014</v>
-      </c>
-      <c r="B7" t="n">
-        <v>95258</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_195.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_195.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>The Eliza Jane</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>3525</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>53014</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70130</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53014</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70130</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
